--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>844574.9373039674</v>
+        <v>913882.5875208229</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5479250.668953522</v>
+        <v>5479250.668953521</v>
       </c>
     </row>
     <row r="11">
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,13 +1417,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="T11" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>42.73236457950441</v>
       </c>
     </row>
     <row r="12">
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="U12" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="W12" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>42.73236457950448</v>
+        <v>42.83355501059441</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="U13" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="V13" t="n">
-        <v>42.73236457950448</v>
+        <v>15.07614573947205</v>
       </c>
       <c r="W13" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>42.73236457950448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>48.51540029462365</v>
       </c>
       <c r="S14" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="V14" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1691,64 +1691,64 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>48.41420986353356</v>
+      </c>
+      <c r="S15" t="n">
+        <v>42.83355501059459</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="T15" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07614573947212</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,25 +1809,25 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>48.51540029462365</v>
@@ -1846,67 +1846,67 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
+      <c r="W17" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>48.51540029462365</v>
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>15.07614573947212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="T20" t="n">
-        <v>42.73236457950449</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W20" t="n">
         <v>48.51540029462365</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
     </row>
     <row r="21">
@@ -2162,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>42.83355501059459</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2219,16 +2219,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>15.07614573947212</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>15.07614573947212</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,70 +2323,70 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>60.8010709166954</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>60.80107091669541</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="G23" t="n">
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2411,46 +2411,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>60.8010709166954</v>
+      </c>
+      <c r="T24" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="H24" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>60.8010709166954</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>60.8010709166954</v>
       </c>
       <c r="U25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Y25" t="n">
         <v>69.02937206709291</v>
@@ -2569,58 +2569,58 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
       <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="V26" t="n">
-        <v>60.8010709166954</v>
       </c>
       <c r="W26" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,67 +2642,67 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0</v>
+      </c>
+      <c r="S27" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
         <v>60.8010709166954</v>
       </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
+      <c r="Y27" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2757,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R28" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>69.02937206709291</v>
+        <v>33.14485207666303</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>69.02937206709291</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="W28" t="n">
-        <v>60.80107091669541</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,49 +2809,49 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="I29" t="n">
-        <v>60.80107091669541</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
       <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,13 +2873,13 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="D30" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>12.38686105316186</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>69.02937206709291</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="G31" t="n">
-        <v>60.80107091669541</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Y31" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="W31" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,13 +3034,13 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>8.775248731120021</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>69.02937206709291</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>52.02582218557539</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>12.38686105316186</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="T33" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>60.80107091669541</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,76 +3186,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>60.8010709166954</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="V34" t="n">
-        <v>60.8010709166954</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3271,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
         <v>42.73236457950449</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>48.51540029462365</v>
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="F36" t="n">
-        <v>42.73236457950448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3398,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="U36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3468,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>48.51540029462365</v>
@@ -3480,10 +3480,10 @@
         <v>48.51540029462365</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>15.07614573947212</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="G38" t="n">
         <v>48.51540029462365</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
     </row>
     <row r="39">
@@ -3581,73 +3581,73 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="C39" t="n">
-        <v>0</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>42.73236457950448</v>
-      </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>42.73236457950449</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0</v>
-      </c>
-      <c r="W39" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="X39" t="n">
-        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="V40" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="W40" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,76 +3739,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>42.73236457950448</v>
+      </c>
+      <c r="F41" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>42.73236457950449</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,25 +3866,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>42.83355501059459</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
-      </c>
-      <c r="W42" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,64 +3900,64 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>42.73236457950449</v>
       </c>
       <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="I43" t="n">
-        <v>42.73236457950448</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3985,64 +3985,64 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="F44" t="n">
+      <c r="T44" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="G44" t="n">
+      <c r="U44" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
         <v>42.73236457950448</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>42.83355501059459</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4073,7 +4073,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>42.83355501059459</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4118,10 +4118,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="C46" t="n">
-        <v>48.51540029462365</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>42.73236457950448</v>
       </c>
       <c r="H46" t="n">
-        <v>42.73236457950448</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096781</v>
       </c>
       <c r="C11" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096781</v>
       </c>
       <c r="D11" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096781</v>
       </c>
       <c r="E11" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662398</v>
       </c>
       <c r="F11" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662398</v>
       </c>
       <c r="G11" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662398</v>
       </c>
       <c r="H11" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="I11" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="J11" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="K11" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="L11" t="n">
-        <v>51.9114783152473</v>
+        <v>51.91147831524719</v>
       </c>
       <c r="M11" t="n">
-        <v>98.00110859513978</v>
+        <v>98.00110859513956</v>
       </c>
       <c r="N11" t="n">
-        <v>146.0313548868172</v>
+        <v>146.0313548868169</v>
       </c>
       <c r="O11" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="P11" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="Q11" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="R11" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="S11" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354401</v>
       </c>
       <c r="T11" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354401</v>
       </c>
       <c r="U11" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354401</v>
       </c>
       <c r="V11" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354401</v>
       </c>
       <c r="W11" t="n">
-        <v>52.88668686662408</v>
+        <v>145.0561463354401</v>
       </c>
       <c r="X11" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354401</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.881232023569892</v>
+        <v>101.8921417096781</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="C12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="D12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="E12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="F12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="G12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="H12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="I12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="J12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="K12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="L12" t="n">
         <v>45.85568787732696</v>
       </c>
       <c r="M12" t="n">
-        <v>93.88593416900437</v>
+        <v>93.88593416900426</v>
       </c>
       <c r="N12" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606816</v>
       </c>
       <c r="O12" t="n">
-        <v>169.1457011422857</v>
+        <v>169.1457011422853</v>
       </c>
       <c r="P12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="Q12" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="R12" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920967</v>
       </c>
       <c r="S12" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920967</v>
       </c>
       <c r="T12" t="n">
-        <v>194.0616011784946</v>
+        <v>96.15290404904258</v>
       </c>
       <c r="U12" t="n">
-        <v>145.0561463354404</v>
+        <v>96.15290404904258</v>
       </c>
       <c r="V12" t="n">
-        <v>96.05069149238619</v>
+        <v>47.14744920598849</v>
       </c>
       <c r="W12" t="n">
-        <v>47.045236649332</v>
+        <v>47.14744920598849</v>
       </c>
       <c r="X12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="C13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="D13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="E13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="F13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="G13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="H13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="I13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="J13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="K13" t="n">
-        <v>3.881232023569892</v>
+        <v>51.91147831524719</v>
       </c>
       <c r="L13" t="n">
-        <v>3.881232023569892</v>
+        <v>99.94172460692451</v>
       </c>
       <c r="M13" t="n">
-        <v>51.9114783152473</v>
+        <v>147.9719708986018</v>
       </c>
       <c r="N13" t="n">
-        <v>99.94172460692471</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="O13" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="P13" t="n">
-        <v>194.0616011784946</v>
+        <v>194.0616011784942</v>
       </c>
       <c r="Q13" t="n">
-        <v>194.0616011784946</v>
+        <v>166.1260265926029</v>
       </c>
       <c r="R13" t="n">
-        <v>194.0616011784946</v>
+        <v>166.1260265926029</v>
       </c>
       <c r="S13" t="n">
-        <v>145.0561463354404</v>
+        <v>117.1205717495488</v>
       </c>
       <c r="T13" t="n">
-        <v>145.0561463354404</v>
+        <v>68.11511690649473</v>
       </c>
       <c r="U13" t="n">
-        <v>96.05069149238619</v>
+        <v>19.10966206344064</v>
       </c>
       <c r="V13" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="W13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="X13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.881232023569892</v>
+        <v>3.881232023569884</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="G14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="H14" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="I14" t="n">
         <v>3.881232023569892</v>
       </c>
       <c r="J14" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="L14" t="n">
         <v>51.9114783152473</v>
       </c>
-      <c r="K14" t="n">
-        <v>51.9114783152473</v>
-      </c>
-      <c r="L14" t="n">
-        <v>61.84743266278371</v>
-      </c>
       <c r="M14" t="n">
-        <v>104.5725337719637</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N14" t="n">
-        <v>152.6027800636411</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O14" t="n">
         <v>194.0616011784946</v>
@@ -5305,25 +5305,25 @@
         <v>145.0561463354404</v>
       </c>
       <c r="S14" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="T14" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U14" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="W14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="X14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y14" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C15" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D15" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E15" t="n">
         <v>3.881232023569892</v>
@@ -5366,7 +5366,7 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M15" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N15" t="n">
         <v>121.1154548506083</v>
@@ -5381,28 +5381,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R15" t="n">
-        <v>194.0616011784946</v>
+        <v>145.1583588920971</v>
       </c>
       <c r="S15" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="T15" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U15" t="n">
-        <v>96.05069149238619</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="V15" t="n">
-        <v>96.05069149238619</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W15" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X15" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y15" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.10966206344072</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C16" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D16" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E16" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F16" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G16" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H16" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I16" t="n">
         <v>3.881232023569892</v>
@@ -5439,7 +5439,7 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K16" t="n">
-        <v>51.9114783152473</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="L16" t="n">
         <v>98.00110859513978</v>
@@ -5448,40 +5448,40 @@
         <v>98.00110859513978</v>
       </c>
       <c r="N16" t="n">
-        <v>98.00110859513978</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O16" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P16" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="Q16" t="n">
-        <v>166.1260265926033</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R16" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S16" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T16" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U16" t="n">
-        <v>117.1205717495491</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V16" t="n">
-        <v>68.1151169064949</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W16" t="n">
-        <v>68.1151169064949</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X16" t="n">
-        <v>19.10966206344072</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.10966206344072</v>
+        <v>96.05069149238619</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>96.05069149238619</v>
+        <v>47.045236649332</v>
       </c>
       <c r="C17" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D17" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E17" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F17" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G17" t="n">
         <v>3.881232023569892</v>
@@ -5518,19 +5518,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K17" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L17" t="n">
-        <v>13.8171863711063</v>
+        <v>65.98277024679379</v>
       </c>
       <c r="M17" t="n">
-        <v>56.54228748028625</v>
+        <v>114.0130165384712</v>
       </c>
       <c r="N17" t="n">
-        <v>104.5725337719637</v>
+        <v>162.0432628301486</v>
       </c>
       <c r="O17" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P17" t="n">
         <v>194.0616011784946</v>
@@ -5545,22 +5545,22 @@
         <v>194.0616011784946</v>
       </c>
       <c r="T17" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U17" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V17" t="n">
         <v>145.0561463354404</v>
       </c>
       <c r="W17" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="X17" t="n">
-        <v>96.05069149238619</v>
+        <v>47.045236649332</v>
       </c>
       <c r="Y17" t="n">
-        <v>96.05069149238619</v>
+        <v>47.045236649332</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C18" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D18" t="n">
-        <v>3.881232023569892</v>
+        <v>47.045236649332</v>
       </c>
       <c r="E18" t="n">
-        <v>3.881232023569892</v>
+        <v>47.045236649332</v>
       </c>
       <c r="F18" t="n">
-        <v>3.881232023569892</v>
+        <v>47.045236649332</v>
       </c>
       <c r="G18" t="n">
         <v>3.881232023569892</v>
@@ -5606,10 +5606,10 @@
         <v>93.88593416900437</v>
       </c>
       <c r="N18" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O18" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523592</v>
       </c>
       <c r="P18" t="n">
         <v>194.0616011784946</v>
@@ -5621,25 +5621,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S18" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="T18" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="U18" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="V18" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="W18" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="X18" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="Y18" t="n">
         <v>145.0561463354404</v>
-      </c>
-      <c r="T18" t="n">
-        <v>96.05069149238619</v>
-      </c>
-      <c r="U18" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="V18" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="W18" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="X18" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C19" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D19" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E19" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F19" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G19" t="n">
-        <v>19.10966206344072</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H19" t="n">
         <v>3.881232023569892</v>
@@ -5679,13 +5679,13 @@
         <v>51.9114783152473</v>
       </c>
       <c r="L19" t="n">
+        <v>51.9114783152473</v>
+      </c>
+      <c r="M19" t="n">
+        <v>51.9114783152473</v>
+      </c>
+      <c r="N19" t="n">
         <v>99.94172460692471</v>
-      </c>
-      <c r="M19" t="n">
-        <v>146.0313548868172</v>
-      </c>
-      <c r="N19" t="n">
-        <v>146.0313548868172</v>
       </c>
       <c r="O19" t="n">
         <v>146.0313548868172</v>
@@ -5694,31 +5694,31 @@
         <v>194.0616011784946</v>
       </c>
       <c r="Q19" t="n">
-        <v>166.1260265926033</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="R19" t="n">
-        <v>117.1205717495491</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="S19" t="n">
-        <v>117.1205717495491</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="T19" t="n">
-        <v>68.1151169064949</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="U19" t="n">
-        <v>68.1151169064949</v>
+        <v>47.045236649332</v>
       </c>
       <c r="V19" t="n">
-        <v>68.1151169064949</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W19" t="n">
-        <v>68.1151169064949</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X19" t="n">
-        <v>68.1151169064949</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.1151169064949</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="20">
@@ -5767,10 +5767,10 @@
         <v>104.5725337719637</v>
       </c>
       <c r="O20" t="n">
+        <v>136.5908721203097</v>
+      </c>
+      <c r="P20" t="n">
         <v>146.0313548868172</v>
-      </c>
-      <c r="P20" t="n">
-        <v>194.0616011784946</v>
       </c>
       <c r="Q20" t="n">
         <v>194.0616011784946</v>
@@ -5782,22 +5782,22 @@
         <v>145.0561463354404</v>
       </c>
       <c r="T20" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U20" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V20" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="W20" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X20" t="n">
-        <v>52.88668686662408</v>
+        <v>47.045236649332</v>
       </c>
       <c r="Y20" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>96.15290404904286</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C21" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D21" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E21" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F21" t="n">
         <v>3.881232023569892</v>
@@ -5843,7 +5843,7 @@
         <v>93.88593416900437</v>
       </c>
       <c r="N21" t="n">
-        <v>141.9161804606818</v>
+        <v>121.1154548506083</v>
       </c>
       <c r="O21" t="n">
         <v>169.1457011422857</v>
@@ -5858,25 +5858,25 @@
         <v>145.1583588920971</v>
       </c>
       <c r="S21" t="n">
-        <v>145.1583588920971</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="T21" t="n">
-        <v>145.1583588920971</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="U21" t="n">
-        <v>145.1583588920971</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="V21" t="n">
-        <v>145.1583588920971</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="W21" t="n">
-        <v>96.15290404904286</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="X21" t="n">
-        <v>96.15290404904286</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="Y21" t="n">
-        <v>96.15290404904286</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.881232023569892</v>
+        <v>19.10966206344072</v>
       </c>
       <c r="C22" t="n">
         <v>3.881232023569892</v>
@@ -5913,19 +5913,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K22" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L22" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M22" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="N22" t="n">
-        <v>98.00110859513978</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="O22" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="P22" t="n">
         <v>194.0616011784946</v>
@@ -5937,25 +5937,25 @@
         <v>117.1205717495491</v>
       </c>
       <c r="S22" t="n">
-        <v>117.1205717495491</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="T22" t="n">
-        <v>117.1205717495491</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="U22" t="n">
-        <v>68.1151169064949</v>
+        <v>19.10966206344072</v>
       </c>
       <c r="V22" t="n">
-        <v>68.1151169064949</v>
+        <v>19.10966206344072</v>
       </c>
       <c r="W22" t="n">
         <v>19.10966206344072</v>
       </c>
       <c r="X22" t="n">
-        <v>3.881232023569892</v>
+        <v>19.10966206344072</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.881232023569892</v>
+        <v>19.10966206344072</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="C23" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="D23" t="n">
-        <v>214.7022651201945</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="E23" t="n">
-        <v>144.9756266685854</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="F23" t="n">
-        <v>75.24898821697644</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="G23" t="n">
-        <v>5.522349765367433</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="H23" t="n">
-        <v>5.522349765367433</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="I23" t="n">
         <v>5.522349765367433</v>
@@ -5995,16 +5995,16 @@
         <v>5.522349765367433</v>
       </c>
       <c r="L23" t="n">
-        <v>73.86142811178941</v>
+        <v>15.45830411290384</v>
       </c>
       <c r="M23" t="n">
-        <v>139.4393315755277</v>
+        <v>83.79738245932582</v>
       </c>
       <c r="N23" t="n">
-        <v>207.7784099219497</v>
+        <v>152.1364608057478</v>
       </c>
       <c r="O23" t="n">
-        <v>276.1174882683716</v>
+        <v>220.4755391521697</v>
       </c>
       <c r="P23" t="n">
         <v>276.1174882683716</v>
@@ -6019,22 +6019,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T23" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U23" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V23" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="W23" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="X23" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="Y23" t="n">
-        <v>276.1174882683716</v>
+        <v>136.6642113651536</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>144.9756266685854</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C24" t="n">
-        <v>144.9756266685854</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D24" t="n">
-        <v>144.9756266685854</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E24" t="n">
-        <v>144.9756266685854</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F24" t="n">
-        <v>144.9756266685854</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G24" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H24" t="n">
         <v>5.522349765367433</v>
@@ -6095,25 +6095,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S24" t="n">
-        <v>276.1174882683716</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="T24" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="U24" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="V24" t="n">
-        <v>214.7022651201945</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W24" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X24" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="Y24" t="n">
-        <v>144.9756266685854</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="25">
@@ -6153,16 +6153,16 @@
         <v>63.83896525826776</v>
       </c>
       <c r="L25" t="n">
-        <v>132.1780436046897</v>
+        <v>63.83896525826776</v>
       </c>
       <c r="M25" t="n">
-        <v>200.5171219511117</v>
+        <v>71.10025322910575</v>
       </c>
       <c r="N25" t="n">
-        <v>268.8562002975336</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="O25" t="n">
-        <v>276.1174882683716</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="P25" t="n">
         <v>276.1174882683716</v>
@@ -6180,13 +6180,13 @@
         <v>214.7022651201945</v>
       </c>
       <c r="U25" t="n">
+        <v>214.7022651201945</v>
+      </c>
+      <c r="V25" t="n">
+        <v>214.7022651201945</v>
+      </c>
+      <c r="W25" t="n">
         <v>144.9756266685854</v>
-      </c>
-      <c r="V25" t="n">
-        <v>144.9756266685854</v>
-      </c>
-      <c r="W25" t="n">
-        <v>75.24898821697644</v>
       </c>
       <c r="X25" t="n">
         <v>75.24898821697644</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C26" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D26" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E26" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F26" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G26" t="n">
         <v>5.522349765367433</v>
@@ -6229,19 +6229,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K26" t="n">
-        <v>18.43919777238939</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L26" t="n">
-        <v>28.3751521199258</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M26" t="n">
-        <v>71.10025322910575</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N26" t="n">
-        <v>139.4393315755277</v>
+        <v>210.5395848046334</v>
       </c>
       <c r="O26" t="n">
-        <v>207.7784099219497</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="P26" t="n">
         <v>276.1174882683716</v>
@@ -6256,22 +6256,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="T26" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U26" t="n">
         <v>206.3908498167626</v>
       </c>
       <c r="V26" t="n">
-        <v>144.9756266685854</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W26" t="n">
-        <v>75.24898821697644</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="X26" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="27">
@@ -6281,13 +6281,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C27" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D27" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E27" t="n">
         <v>5.522349765367433</v>
@@ -6305,10 +6305,10 @@
         <v>5.522349765367433</v>
       </c>
       <c r="J27" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="K27" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L27" t="n">
         <v>59.390589567631</v>
@@ -6332,22 +6332,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S27" t="n">
-        <v>214.7022651201945</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T27" t="n">
-        <v>214.7022651201945</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U27" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="V27" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="W27" t="n">
+        <v>206.3908498167626</v>
+      </c>
+      <c r="X27" t="n">
         <v>144.9756266685854</v>
-      </c>
-      <c r="V27" t="n">
-        <v>144.9756266685854</v>
-      </c>
-      <c r="W27" t="n">
-        <v>144.9756266685854</v>
-      </c>
-      <c r="X27" t="n">
-        <v>75.24898821697644</v>
       </c>
       <c r="Y27" t="n">
         <v>75.24898821697644</v>
@@ -6387,13 +6387,13 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K28" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L28" t="n">
-        <v>71.10025322910575</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="M28" t="n">
-        <v>139.4393315755277</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="N28" t="n">
         <v>207.7784099219497</v>
@@ -6405,22 +6405,22 @@
         <v>276.1174882683716</v>
       </c>
       <c r="Q28" t="n">
-        <v>276.1174882683716</v>
+        <v>248.1819136824803</v>
       </c>
       <c r="R28" t="n">
-        <v>206.3908498167626</v>
+        <v>248.1819136824803</v>
       </c>
       <c r="S28" t="n">
-        <v>136.6642113651536</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="T28" t="n">
-        <v>136.6642113651536</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U28" t="n">
-        <v>66.93757291354461</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="V28" t="n">
-        <v>66.93757291354461</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="W28" t="n">
         <v>5.522349765367433</v>
@@ -6442,40 +6442,40 @@
         <v>136.6642113651536</v>
       </c>
       <c r="C29" t="n">
-        <v>136.6642113651536</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="D29" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E29" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F29" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G29" t="n">
-        <v>136.6642113651536</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="H29" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="I29" t="n">
         <v>5.522349765367433</v>
       </c>
       <c r="J29" t="n">
-        <v>73.86142811178941</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="K29" t="n">
         <v>73.86142811178941</v>
       </c>
       <c r="L29" t="n">
-        <v>83.79738245932582</v>
+        <v>117.0230625210923</v>
       </c>
       <c r="M29" t="n">
-        <v>152.1364608057478</v>
+        <v>159.7481636302723</v>
       </c>
       <c r="N29" t="n">
-        <v>220.4755391521697</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="O29" t="n">
         <v>276.1174882683716</v>
@@ -6490,7 +6490,7 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S29" t="n">
-        <v>276.1174882683716</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T29" t="n">
         <v>206.3908498167626</v>
@@ -6499,16 +6499,16 @@
         <v>206.3908498167626</v>
       </c>
       <c r="V29" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W29" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="X29" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="Y29" t="n">
-        <v>206.3908498167626</v>
+        <v>136.6642113651536</v>
       </c>
     </row>
     <row r="30">
@@ -6518,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>87.76096907875609</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="C30" t="n">
-        <v>87.76096907875609</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D30" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E30" t="n">
         <v>5.522349765367433</v>
@@ -6545,7 +6545,7 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K30" t="n">
-        <v>17.41613371387393</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L30" t="n">
         <v>59.390589567631</v>
@@ -6566,28 +6566,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R30" t="n">
-        <v>227.2142459819741</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S30" t="n">
-        <v>157.4876075303651</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="T30" t="n">
-        <v>157.4876075303651</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="U30" t="n">
-        <v>157.4876075303651</v>
+        <v>214.7022651201945</v>
       </c>
       <c r="V30" t="n">
-        <v>87.76096907875609</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="W30" t="n">
-        <v>87.76096907875609</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="X30" t="n">
-        <v>87.76096907875609</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="Y30" t="n">
-        <v>87.76096907875609</v>
+        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.93757291354461</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="C31" t="n">
-        <v>66.93757291354461</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="D31" t="n">
         <v>66.93757291354461</v>
@@ -6609,7 +6609,7 @@
         <v>66.93757291354461</v>
       </c>
       <c r="F31" t="n">
-        <v>66.93757291354461</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="G31" t="n">
         <v>5.522349765367433</v>
@@ -6624,16 +6624,16 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K31" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L31" t="n">
-        <v>132.1780436046897</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="M31" t="n">
-        <v>132.1780436046897</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="N31" t="n">
-        <v>139.4393315755277</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="O31" t="n">
         <v>207.7784099219497</v>
@@ -6654,19 +6654,19 @@
         <v>276.1174882683716</v>
       </c>
       <c r="U31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="V31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="W31" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="X31" t="n">
         <v>206.3908498167626</v>
       </c>
-      <c r="V31" t="n">
+      <c r="Y31" t="n">
         <v>136.6642113651536</v>
-      </c>
-      <c r="W31" t="n">
-        <v>66.93757291354461</v>
-      </c>
-      <c r="X31" t="n">
-        <v>66.93757291354461</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>66.93757291354461</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="C32" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="D32" t="n">
         <v>144.9756266685854</v>
@@ -6688,13 +6688,13 @@
         <v>144.9756266685854</v>
       </c>
       <c r="F32" t="n">
+        <v>144.9756266685854</v>
+      </c>
+      <c r="G32" t="n">
         <v>75.24898821697644</v>
       </c>
-      <c r="G32" t="n">
-        <v>5.522349765367433</v>
-      </c>
       <c r="H32" t="n">
-        <v>5.522349765367433</v>
+        <v>75.24898821697644</v>
       </c>
       <c r="I32" t="n">
         <v>5.522349765367433</v>
@@ -6703,49 +6703,49 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K32" t="n">
-        <v>49.4547925879679</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L32" t="n">
-        <v>59.39074693550431</v>
+        <v>15.45830411290384</v>
       </c>
       <c r="M32" t="n">
-        <v>127.7298252819263</v>
+        <v>71.10025322910575</v>
       </c>
       <c r="N32" t="n">
-        <v>175.7600715736037</v>
+        <v>139.4393315755277</v>
       </c>
       <c r="O32" t="n">
         <v>207.7784099219497</v>
       </c>
       <c r="P32" t="n">
-        <v>276.1174882683716</v>
+        <v>207.7784099219497</v>
       </c>
       <c r="Q32" t="n">
         <v>276.1174882683716</v>
       </c>
       <c r="R32" t="n">
-        <v>223.5661527273864</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S32" t="n">
-        <v>223.5661527273864</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="T32" t="n">
-        <v>153.8395142757774</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="U32" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V32" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="W32" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="X32" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="Y32" t="n">
-        <v>153.8395142757774</v>
+        <v>206.3908498167626</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="C33" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="D33" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="E33" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F33" t="n">
         <v>5.522349765367433</v>
@@ -6782,19 +6782,19 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K33" t="n">
-        <v>5.522349765367433</v>
+        <v>17.41613371387393</v>
       </c>
       <c r="L33" t="n">
-        <v>47.4968056191245</v>
+        <v>59.390589567631</v>
       </c>
       <c r="M33" t="n">
-        <v>115.8358839655465</v>
+        <v>127.729667914053</v>
       </c>
       <c r="N33" t="n">
-        <v>184.1749623119684</v>
+        <v>196.0687462604749</v>
       </c>
       <c r="O33" t="n">
-        <v>239.3078042836563</v>
+        <v>251.2015882321627</v>
       </c>
       <c r="P33" t="n">
         <v>276.1174882683716</v>
@@ -6803,28 +6803,28 @@
         <v>276.1174882683716</v>
       </c>
       <c r="R33" t="n">
-        <v>227.2142459819741</v>
+        <v>276.1174882683716</v>
       </c>
       <c r="S33" t="n">
-        <v>227.2142459819741</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="T33" t="n">
-        <v>157.4876075303651</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="U33" t="n">
-        <v>157.4876075303651</v>
+        <v>206.3908498167626</v>
       </c>
       <c r="V33" t="n">
-        <v>87.76096907875609</v>
+        <v>136.6642113651536</v>
       </c>
       <c r="W33" t="n">
-        <v>18.03433062714709</v>
+        <v>66.93757291354461</v>
       </c>
       <c r="X33" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="Y33" t="n">
-        <v>18.03433062714709</v>
+        <v>5.522349765367433</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.24898821697644</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="C34" t="n">
-        <v>75.24898821697644</v>
+        <v>144.9756266685854</v>
       </c>
       <c r="D34" t="n">
         <v>75.24898821697644</v>
       </c>
       <c r="E34" t="n">
-        <v>75.24898821697644</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="F34" t="n">
         <v>5.522349765367433</v>
@@ -6861,16 +6861,16 @@
         <v>5.522349765367433</v>
       </c>
       <c r="K34" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="L34" t="n">
-        <v>63.83896525826776</v>
+        <v>5.522349765367433</v>
       </c>
       <c r="M34" t="n">
-        <v>132.1780436046897</v>
+        <v>73.86142811178941</v>
       </c>
       <c r="N34" t="n">
-        <v>139.4393315755277</v>
+        <v>142.2005064582114</v>
       </c>
       <c r="O34" t="n">
         <v>207.7784099219497</v>
@@ -6885,25 +6885,25 @@
         <v>276.1174882683716</v>
       </c>
       <c r="S34" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="T34" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="U34" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="V34" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="W34" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="X34" t="n">
+        <v>276.1174882683716</v>
+      </c>
+      <c r="Y34" t="n">
         <v>206.3908498167626</v>
-      </c>
-      <c r="T34" t="n">
-        <v>206.3908498167626</v>
-      </c>
-      <c r="U34" t="n">
-        <v>136.6642113651536</v>
-      </c>
-      <c r="V34" t="n">
-        <v>75.24898821697644</v>
-      </c>
-      <c r="W34" t="n">
-        <v>75.24898821697644</v>
-      </c>
-      <c r="X34" t="n">
-        <v>75.24898821697644</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>75.24898821697644</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C35" t="n">
-        <v>52.88668686662408</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D35" t="n">
         <v>52.88668686662408</v>
@@ -6925,7 +6925,7 @@
         <v>52.88668686662408</v>
       </c>
       <c r="F35" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G35" t="n">
         <v>3.881232023569892</v>
@@ -6937,19 +6937,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="J35" t="n">
-        <v>3.881232023569892</v>
+        <v>23.25766913761384</v>
       </c>
       <c r="K35" t="n">
-        <v>3.881232023569892</v>
+        <v>23.25766913761384</v>
       </c>
       <c r="L35" t="n">
-        <v>51.9114783152473</v>
+        <v>71.28791542929125</v>
       </c>
       <c r="M35" t="n">
-        <v>98.00110859513978</v>
+        <v>114.0130165384712</v>
       </c>
       <c r="N35" t="n">
-        <v>146.0313548868172</v>
+        <v>162.0432628301486</v>
       </c>
       <c r="O35" t="n">
         <v>194.0616011784946</v>
@@ -6964,25 +6964,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S35" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T35" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="U35" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="V35" t="n">
+        <v>194.0616011784946</v>
+      </c>
+      <c r="W35" t="n">
+        <v>150.8975965527325</v>
+      </c>
+      <c r="X35" t="n">
         <v>101.8921417096783</v>
       </c>
-      <c r="U35" t="n">
+      <c r="Y35" t="n">
         <v>101.8921417096783</v>
-      </c>
-      <c r="V35" t="n">
-        <v>101.8921417096783</v>
-      </c>
-      <c r="W35" t="n">
-        <v>101.8921417096783</v>
-      </c>
-      <c r="X35" t="n">
-        <v>52.88668686662408</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>52.88668686662408</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>47.045236649332</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C36" t="n">
-        <v>47.045236649332</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="D36" t="n">
-        <v>47.045236649332</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="E36" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F36" t="n">
-        <v>3.881232023569892</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G36" t="n">
         <v>3.881232023569892</v>
@@ -7046,22 +7046,22 @@
         <v>194.0616011784946</v>
       </c>
       <c r="T36" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="U36" t="n">
         <v>145.0561463354404</v>
       </c>
       <c r="V36" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W36" t="n">
-        <v>47.045236649332</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X36" t="n">
-        <v>47.045236649332</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y36" t="n">
-        <v>47.045236649332</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="37">
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F37" t="n">
         <v>3.881232023569892</v>
@@ -7098,49 +7098,49 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K37" t="n">
-        <v>51.9114783152473</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L37" t="n">
+        <v>3.881232023569892</v>
+      </c>
+      <c r="M37" t="n">
+        <v>49.97086230346238</v>
+      </c>
+      <c r="N37" t="n">
         <v>98.00110859513978</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>146.0313548868172</v>
-      </c>
-      <c r="N37" t="n">
-        <v>194.0616011784946</v>
-      </c>
-      <c r="O37" t="n">
-        <v>194.0616011784946</v>
       </c>
       <c r="P37" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="Q37" t="n">
-        <v>194.0616011784946</v>
+        <v>166.1260265926033</v>
       </c>
       <c r="R37" t="n">
-        <v>145.0561463354404</v>
+        <v>166.1260265926033</v>
       </c>
       <c r="S37" t="n">
-        <v>96.05069149238619</v>
+        <v>117.1205717495491</v>
       </c>
       <c r="T37" t="n">
-        <v>47.045236649332</v>
+        <v>68.1151169064949</v>
       </c>
       <c r="U37" t="n">
-        <v>47.045236649332</v>
+        <v>19.10966206344072</v>
       </c>
       <c r="V37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="W37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="X37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C38" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D38" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E38" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F38" t="n">
-        <v>96.05069149238619</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G38" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H38" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I38" t="n">
         <v>3.881232023569892</v>
@@ -7177,49 +7177,49 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K38" t="n">
-        <v>13.32171479007741</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="L38" t="n">
-        <v>23.25766913761382</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="M38" t="n">
-        <v>65.98277024679376</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N38" t="n">
-        <v>114.0130165384712</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O38" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P38" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Q38" t="n">
         <v>194.0616011784946</v>
       </c>
       <c r="R38" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S38" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T38" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U38" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V38" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W38" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="X38" t="n">
-        <v>96.05069149238619</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Y38" t="n">
-        <v>96.05069149238619</v>
+        <v>150.8975965527325</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="C39" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D39" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E39" t="n">
-        <v>96.05069149238619</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F39" t="n">
         <v>52.88668686662408</v>
       </c>
       <c r="G39" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H39" t="n">
         <v>3.881232023569892</v>
@@ -7280,25 +7280,25 @@
         <v>194.0616011784946</v>
       </c>
       <c r="S39" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="T39" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U39" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="V39" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="W39" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="X39" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="Y39" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="C40" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="D40" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="E40" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="F40" t="n">
-        <v>47.045236649332</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G40" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H40" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I40" t="n">
         <v>3.881232023569892</v>
@@ -7335,16 +7335,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K40" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L40" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M40" t="n">
-        <v>99.94172460692471</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N40" t="n">
-        <v>147.9719708986021</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="O40" t="n">
         <v>194.0616011784946</v>
@@ -7362,22 +7362,22 @@
         <v>194.0616011784946</v>
       </c>
       <c r="T40" t="n">
-        <v>194.0616011784946</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="U40" t="n">
-        <v>145.0561463354404</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="V40" t="n">
-        <v>96.05069149238619</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="W40" t="n">
-        <v>47.045236649332</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="X40" t="n">
-        <v>47.045236649332</v>
+        <v>150.8975965527325</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.045236649332</v>
+        <v>101.8921417096783</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>101.8921417096783</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="C41" t="n">
-        <v>52.88668686662408</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D41" t="n">
-        <v>52.88668686662408</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="E41" t="n">
         <v>52.88668686662408</v>
       </c>
       <c r="F41" t="n">
-        <v>52.88668686662408</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G41" t="n">
         <v>3.881232023569892</v>
@@ -7411,19 +7411,19 @@
         <v>3.881232023569892</v>
       </c>
       <c r="J41" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="K41" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L41" t="n">
-        <v>51.9114783152473</v>
+        <v>61.84743266278371</v>
       </c>
       <c r="M41" t="n">
-        <v>99.94172460692471</v>
+        <v>104.5725337719637</v>
       </c>
       <c r="N41" t="n">
-        <v>147.9719708986021</v>
+        <v>152.6027800636411</v>
       </c>
       <c r="O41" t="n">
         <v>194.0616011784946</v>
@@ -7435,28 +7435,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R41" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S41" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T41" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U41" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V41" t="n">
-        <v>150.8975965527325</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W41" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="X41" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="Y41" t="n">
-        <v>101.8921417096783</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C42" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="D42" t="n">
-        <v>3.881232023569892</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="E42" t="n">
-        <v>3.881232023569892</v>
+        <v>47.045236649332</v>
       </c>
       <c r="F42" t="n">
         <v>3.881232023569892</v>
@@ -7496,16 +7496,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L42" t="n">
-        <v>25.05496226725349</v>
+        <v>45.85568787732696</v>
       </c>
       <c r="M42" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N42" t="n">
-        <v>121.1154548506083</v>
+        <v>141.9161804606818</v>
       </c>
       <c r="O42" t="n">
-        <v>169.1457011422857</v>
+        <v>189.9464267523592</v>
       </c>
       <c r="P42" t="n">
         <v>194.0616011784946</v>
@@ -7514,28 +7514,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R42" t="n">
-        <v>145.1583588920971</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S42" t="n">
-        <v>145.1583588920971</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="T42" t="n">
-        <v>101.8921417096783</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="U42" t="n">
-        <v>52.88668686662408</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="V42" t="n">
-        <v>52.88668686662408</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="W42" t="n">
-        <v>3.881232023569892</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="X42" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y42" t="n">
-        <v>3.881232023569892</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="C43" t="n">
-        <v>194.0616011784946</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="D43" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="E43" t="n">
-        <v>145.0561463354404</v>
+        <v>101.8921417096783</v>
       </c>
       <c r="F43" t="n">
-        <v>145.0561463354404</v>
+        <v>52.88668686662408</v>
       </c>
       <c r="G43" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H43" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="I43" t="n">
         <v>3.881232023569892</v>
@@ -7572,16 +7572,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="K43" t="n">
-        <v>3.881232023569892</v>
+        <v>51.9114783152473</v>
       </c>
       <c r="L43" t="n">
-        <v>3.881232023569892</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M43" t="n">
-        <v>51.9114783152473</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N43" t="n">
-        <v>99.94172460692471</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O43" t="n">
         <v>147.9719708986021</v>
@@ -7605,16 +7605,16 @@
         <v>194.0616011784946</v>
       </c>
       <c r="V43" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W43" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X43" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="C44" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D44" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E44" t="n">
-        <v>96.05069149238619</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F44" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G44" t="n">
         <v>3.881232023569892</v>
@@ -7654,16 +7654,16 @@
         <v>3.881232023569892</v>
       </c>
       <c r="L44" t="n">
-        <v>13.8171863711063</v>
+        <v>49.97086230346238</v>
       </c>
       <c r="M44" t="n">
-        <v>56.54228748028625</v>
+        <v>98.00110859513978</v>
       </c>
       <c r="N44" t="n">
-        <v>104.5725337719637</v>
+        <v>146.0313548868172</v>
       </c>
       <c r="O44" t="n">
-        <v>146.0313548868172</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="P44" t="n">
         <v>194.0616011784946</v>
@@ -7672,28 +7672,28 @@
         <v>194.0616011784946</v>
       </c>
       <c r="R44" t="n">
-        <v>145.0561463354404</v>
+        <v>194.0616011784946</v>
       </c>
       <c r="S44" t="n">
         <v>145.0561463354404</v>
       </c>
       <c r="T44" t="n">
-        <v>145.0561463354404</v>
+        <v>96.05069149238619</v>
       </c>
       <c r="U44" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="V44" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="W44" t="n">
-        <v>145.0561463354404</v>
+        <v>47.045236649332</v>
       </c>
       <c r="X44" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.0561463354404</v>
+        <v>3.881232023569892</v>
       </c>
     </row>
     <row r="45">
@@ -7706,19 +7706,19 @@
         <v>47.14744920598867</v>
       </c>
       <c r="C45" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="D45" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="E45" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="F45" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="G45" t="n">
-        <v>47.14744920598867</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H45" t="n">
         <v>3.881232023569892</v>
@@ -7736,7 +7736,7 @@
         <v>45.85568787732696</v>
       </c>
       <c r="M45" t="n">
-        <v>73.0852085589309</v>
+        <v>93.88593416900437</v>
       </c>
       <c r="N45" t="n">
         <v>121.1154548506083</v>
@@ -7766,7 +7766,7 @@
         <v>96.15290404904286</v>
       </c>
       <c r="W45" t="n">
-        <v>47.14744920598867</v>
+        <v>96.15290404904286</v>
       </c>
       <c r="X45" t="n">
         <v>47.14744920598867</v>
@@ -7785,10 +7785,10 @@
         <v>145.0561463354404</v>
       </c>
       <c r="C46" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="D46" t="n">
-        <v>96.05069149238619</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="E46" t="n">
         <v>96.05069149238619</v>
@@ -7797,7 +7797,7 @@
         <v>47.045236649332</v>
       </c>
       <c r="G46" t="n">
-        <v>47.045236649332</v>
+        <v>3.881232023569892</v>
       </c>
       <c r="H46" t="n">
         <v>3.881232023569892</v>
@@ -7812,16 +7812,16 @@
         <v>51.9114783152473</v>
       </c>
       <c r="L46" t="n">
-        <v>51.9114783152473</v>
+        <v>99.94172460692471</v>
       </c>
       <c r="M46" t="n">
-        <v>51.9114783152473</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="N46" t="n">
-        <v>98.00110859513978</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="O46" t="n">
-        <v>146.0313548868172</v>
+        <v>147.9719708986021</v>
       </c>
       <c r="P46" t="n">
         <v>194.0616011784946</v>
@@ -7839,19 +7839,19 @@
         <v>194.0616011784946</v>
       </c>
       <c r="U46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="V46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="W46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="X46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.0616011784946</v>
+        <v>145.0561463354404</v>
       </c>
     </row>
   </sheetData>
@@ -8695,16 +8695,16 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L11" t="n">
-        <v>38.47908277185959</v>
+        <v>38.4790827718595</v>
       </c>
       <c r="M11" t="n">
-        <v>3.398514313851045</v>
+        <v>3.398514313850924</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16.17364438720347</v>
+        <v>16.17364438720335</v>
       </c>
       <c r="P11" t="n">
         <v>7.246555403111074</v>
@@ -8850,22 +8850,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422523</v>
       </c>
       <c r="L13" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427887</v>
       </c>
       <c r="M13" t="n">
-        <v>77.91823012972323</v>
+        <v>77.91823012972313</v>
       </c>
       <c r="N13" t="n">
-        <v>69.28220170030768</v>
+        <v>67.32198350658541</v>
       </c>
       <c r="O13" t="n">
-        <v>86.25495603721706</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>97.36099959559726</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K14" t="n">
         <v>21.95586290547635</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>9.535841178290418</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P14" t="n">
         <v>7.246555403111074</v>
@@ -9087,22 +9087,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>96.35349442422533</v>
+        <v>94.39327623050318</v>
       </c>
       <c r="L16" t="n">
-        <v>77.56359604055683</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M16" t="n">
         <v>29.40282983509958</v>
       </c>
       <c r="N16" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O16" t="n">
         <v>88.21517423093921</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7399315424738</v>
+        <v>53.22453124785014</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9166,22 +9166,22 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K17" t="n">
-        <v>21.95586290547635</v>
+        <v>70.4712632001</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>4.177108670717253</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>5.358732507573166</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>9.535841178290418</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>55.76195569773472</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q17" t="n">
         <v>54.10120131416818</v>
@@ -9327,16 +9327,16 @@
         <v>96.35349442422533</v>
       </c>
       <c r="L19" t="n">
-        <v>79.52381423427897</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M19" t="n">
-        <v>75.95801193600107</v>
+        <v>29.40282983509958</v>
       </c>
       <c r="N19" t="n">
-        <v>20.76680140568403</v>
+        <v>69.28220170030768</v>
       </c>
       <c r="O19" t="n">
-        <v>39.69977393631557</v>
+        <v>86.25495603721706</v>
       </c>
       <c r="P19" t="n">
         <v>101.7399315424738</v>
@@ -9415,13 +9415,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>9.535841178290418</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>55.76195569773472</v>
+        <v>16.78239658140151</v>
       </c>
       <c r="Q20" t="n">
-        <v>54.10120131416818</v>
+        <v>102.6166016087919</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9561,7 +9561,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L22" t="n">
         <v>79.52381423427897</v>
@@ -9570,13 +9570,13 @@
         <v>29.40282983509958</v>
       </c>
       <c r="N22" t="n">
-        <v>67.32198350658552</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O22" t="n">
         <v>88.21517423093921</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7399315424738</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9643,19 +9643,19 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L23" t="n">
-        <v>58.99305454432886</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>23.08363874197815</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N23" t="n">
-        <v>20.51397177246923</v>
+        <v>20.51397177246926</v>
       </c>
       <c r="O23" t="n">
         <v>36.6876161596727</v>
       </c>
       <c r="P23" t="n">
-        <v>7.246555403111074</v>
+        <v>63.4505444093756</v>
       </c>
       <c r="Q23" t="n">
         <v>54.10120131416818</v>
@@ -9801,19 +9801,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>100.0377860067482</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M25" t="n">
-        <v>98.43220190219249</v>
+        <v>36.73746414907734</v>
       </c>
       <c r="N25" t="n">
         <v>89.79617347277694</v>
       </c>
       <c r="O25" t="n">
-        <v>47.03440825029334</v>
+        <v>108.7291460034085</v>
       </c>
       <c r="P25" t="n">
-        <v>53.22453124785014</v>
+        <v>122.253903314943</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9877,22 +9877,22 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K26" t="n">
-        <v>35.00318412469045</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>58.99305454432886</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>25.87270428004246</v>
       </c>
       <c r="N26" t="n">
-        <v>20.51397177246923</v>
+        <v>20.51397177246926</v>
       </c>
       <c r="O26" t="n">
-        <v>36.6876161596727</v>
+        <v>33.89855062160835</v>
       </c>
       <c r="P26" t="n">
-        <v>76.27592747020395</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q26" t="n">
         <v>54.10120131416818</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>60.11395371729918</v>
+        <v>48.10003053698959</v>
       </c>
       <c r="K27" t="n">
         <v>3.266346048945991</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>12.0139231803096</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -10035,16 +10035,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L28" t="n">
-        <v>38.34304825363309</v>
+        <v>100.0377860067482</v>
       </c>
       <c r="M28" t="n">
         <v>98.43220190219249</v>
       </c>
       <c r="N28" t="n">
-        <v>89.79617347277694</v>
+        <v>87.00710793471262</v>
       </c>
       <c r="O28" t="n">
         <v>108.7291460034085</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.8749713680665</v>
+        <v>48.84559930097362</v>
       </c>
       <c r="K29" t="n">
-        <v>21.95586290547635</v>
+        <v>90.98523497256926</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>33.56129299168335</v>
       </c>
       <c r="M29" t="n">
-        <v>25.87270428004246</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>20.51397177246926</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>23.86223309884432</v>
+        <v>36.6876161596727</v>
       </c>
       <c r="P29" t="n">
         <v>7.246555403111074</v>
@@ -10193,10 +10193,10 @@
         <v>48.10003053698959</v>
       </c>
       <c r="K30" t="n">
-        <v>15.28026922925558</v>
+        <v>3.266346048945991</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>12.0139231803096</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10272,19 +10272,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L31" t="n">
-        <v>100.0377860067482</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M31" t="n">
-        <v>29.40282983509958</v>
+        <v>98.43220190219249</v>
       </c>
       <c r="N31" t="n">
-        <v>28.10143571966181</v>
+        <v>89.79617347277694</v>
       </c>
       <c r="O31" t="n">
-        <v>108.7291460034085</v>
+        <v>105.9400804653442</v>
       </c>
       <c r="P31" t="n">
         <v>122.253903314943</v>
@@ -10351,25 +10351,25 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K32" t="n">
-        <v>66.33206777678996</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>25.87270428004246</v>
+        <v>13.04732121921409</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>20.51397177246923</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>36.6876161596727</v>
       </c>
       <c r="P32" t="n">
-        <v>76.27592747020395</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q32" t="n">
-        <v>54.10120131416818</v>
+        <v>123.1305733812611</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10430,7 +10430,7 @@
         <v>48.10003053698959</v>
       </c>
       <c r="K33" t="n">
-        <v>3.266346048945991</v>
+        <v>15.28026922925558</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>12.01392318030958</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>33.59957280668804</v>
@@ -10509,7 +10509,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L34" t="n">
         <v>31.00841393965533</v>
@@ -10518,10 +10518,10 @@
         <v>98.43220190219249</v>
       </c>
       <c r="N34" t="n">
-        <v>28.10143571966181</v>
+        <v>89.79617347277694</v>
       </c>
       <c r="O34" t="n">
-        <v>108.7291460034085</v>
+        <v>105.9400804653442</v>
       </c>
       <c r="P34" t="n">
         <v>122.253903314943</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>48.84559930097362</v>
+        <v>68.41775800202811</v>
       </c>
       <c r="K35" t="n">
         <v>21.95586290547635</v>
@@ -10594,13 +10594,13 @@
         <v>38.47908277185959</v>
       </c>
       <c r="M35" t="n">
-        <v>3.398514313851045</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>16.17364438720347</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>7.246555403111074</v>
@@ -10746,22 +10746,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>96.35349442422533</v>
+        <v>47.83809412960169</v>
       </c>
       <c r="L37" t="n">
-        <v>77.56359604055683</v>
+        <v>31.00841393965533</v>
       </c>
       <c r="M37" t="n">
-        <v>77.91823012972323</v>
+        <v>75.95801193600107</v>
       </c>
       <c r="N37" t="n">
         <v>69.28220170030768</v>
       </c>
       <c r="O37" t="n">
-        <v>39.69977393631557</v>
+        <v>88.21517423093921</v>
       </c>
       <c r="P37" t="n">
-        <v>53.22453124785014</v>
+        <v>101.7399315424738</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10825,25 +10825,25 @@
         <v>48.84559930097362</v>
       </c>
       <c r="K38" t="n">
-        <v>31.49170408376677</v>
+        <v>21.95586290547635</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>38.47908277185959</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>3.398514313851045</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P38" t="n">
         <v>7.246555403111074</v>
       </c>
       <c r="Q38" t="n">
-        <v>102.6166016087919</v>
+        <v>54.10120131416818</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10983,7 +10983,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L40" t="n">
         <v>79.52381423427897</v>
@@ -10992,10 +10992,10 @@
         <v>77.91823012972323</v>
       </c>
       <c r="N40" t="n">
-        <v>69.28220170030768</v>
+        <v>67.32198350658552</v>
       </c>
       <c r="O40" t="n">
-        <v>86.25495603721706</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P40" t="n">
         <v>53.22453124785014</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>48.84559930097362</v>
+        <v>97.36099959559726</v>
       </c>
       <c r="K41" t="n">
         <v>21.95586290547635</v>
       </c>
       <c r="L41" t="n">
-        <v>38.47908277185959</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.358732507573194</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>14.21342619348128</v>
+        <v>9.535841178290418</v>
       </c>
       <c r="P41" t="n">
         <v>7.246555403111074</v>
@@ -11220,19 +11220,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>47.83809412960169</v>
+        <v>96.35349442422533</v>
       </c>
       <c r="L43" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M43" t="n">
         <v>77.91823012972323</v>
       </c>
       <c r="N43" t="n">
-        <v>69.28220170030768</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O43" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P43" t="n">
         <v>99.77971334875163</v>
@@ -11302,19 +11302,19 @@
         <v>21.95586290547635</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>36.51886457813745</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>5.358732507573166</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>9.535841178290418</v>
+        <v>16.17364438720347</v>
       </c>
       <c r="P44" t="n">
-        <v>55.76195569773472</v>
+        <v>7.246555403111074</v>
       </c>
       <c r="Q44" t="n">
         <v>54.10120131416818</v>
@@ -11460,19 +11460,19 @@
         <v>96.35349442422533</v>
       </c>
       <c r="L46" t="n">
-        <v>31.00841393965533</v>
+        <v>79.52381423427897</v>
       </c>
       <c r="M46" t="n">
-        <v>29.40282983509958</v>
+        <v>77.91823012972323</v>
       </c>
       <c r="N46" t="n">
-        <v>67.32198350658552</v>
+        <v>20.76680140568403</v>
       </c>
       <c r="O46" t="n">
-        <v>88.21517423093921</v>
+        <v>39.69977393631557</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7399315424738</v>
+        <v>99.77971334875163</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>333.4149697776382</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23275,7 +23275,7 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H11" t="n">
-        <v>323.522916215912</v>
+        <v>275.0075159212885</v>
       </c>
       <c r="I11" t="n">
         <v>150.4260830375935</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>9.293457606070902</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S11" t="n">
-        <v>125.0106036313801</v>
+        <v>125.0106036313802</v>
       </c>
       <c r="T11" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U11" t="n">
         <v>251.2210440102909</v>
@@ -23323,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>321.2157003838454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>343.5055740765492</v>
       </c>
     </row>
     <row r="12">
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>156.2032156881569</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U12" t="n">
-        <v>177.3711531367089</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V12" t="n">
-        <v>184.2851868548016</v>
+        <v>184.2851868548017</v>
       </c>
       <c r="W12" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>163.040620623973</v>
+        <v>162.9394301928831</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>145.8777136505296</v>
       </c>
       <c r="S13" t="n">
-        <v>163.3249231362086</v>
+        <v>163.3249231362087</v>
       </c>
       <c r="T13" t="n">
-        <v>224.9602743187949</v>
+        <v>176.4448740241713</v>
       </c>
       <c r="U13" t="n">
-        <v>237.7655186562142</v>
+        <v>237.7655186562143</v>
       </c>
       <c r="V13" t="n">
-        <v>209.4052787443235</v>
+        <v>237.0614975843559</v>
       </c>
       <c r="W13" t="n">
-        <v>238.0075980419674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.0127617163112</v>
+        <v>365.229726001192</v>
       </c>
       <c r="H14" t="n">
         <v>323.522916215912</v>
       </c>
       <c r="I14" t="n">
-        <v>150.4260830375935</v>
+        <v>101.9106827429698</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,16 +23545,16 @@
         <v>3.510421890951747</v>
       </c>
       <c r="S14" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T14" t="n">
         <v>216.2774064515606</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2210440102909</v>
+        <v>208.4886794307864</v>
       </c>
       <c r="V14" t="n">
-        <v>279.2368581755113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>104.7127009851343</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>109.1296801607773</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>48.41420986353356</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>107.6878153935333</v>
+        <v>113.3696606775623</v>
       </c>
       <c r="T15" t="n">
-        <v>148.2901597987787</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8865534313325</v>
+        <v>177.3711531367089</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>203.179582866296</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3165798873137</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>124.5144565191233</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23673,7 +23673,7 @@
         <v>156.0151763859972</v>
       </c>
       <c r="I16" t="n">
-        <v>119.3627922044209</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J16" t="n">
         <v>43.96174265608267</v>
@@ -23697,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R16" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S16" t="n">
         <v>211.8403234308322</v>
@@ -23712,10 +23712,10 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V16" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>238.0075980419674</v>
       </c>
       <c r="X16" t="n">
         <v>177.1942550944135</v>
@@ -23734,19 +23734,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>322.5405271915031</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>339.1980054927573</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H17" t="n">
         <v>323.522916215912</v>
@@ -23785,16 +23785,16 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T17" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U17" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>300.7255684227894</v>
       </c>
       <c r="X17" t="n">
         <v>321.2157003838454</v>
@@ -23813,10 +23813,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>124.1930986936921</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>98.92966527001511</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23825,7 +23825,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.5101216886474</v>
+        <v>93.77775710914293</v>
       </c>
       <c r="H18" t="n">
         <v>104.1865984690043</v>
@@ -23861,13 +23861,13 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S18" t="n">
-        <v>107.6878153935333</v>
+        <v>156.2032156881569</v>
       </c>
       <c r="T18" t="n">
-        <v>148.2901597987787</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U18" t="n">
-        <v>183.154188851828</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>131.3165798873137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23907,7 +23907,7 @@
         <v>167.2922885881534</v>
       </c>
       <c r="H19" t="n">
-        <v>140.9390306465251</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I19" t="n">
         <v>134.438937943893</v>
@@ -23934,25 +23934,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>27.65621884003237</v>
       </c>
       <c r="R19" t="n">
         <v>97.36231335590594</v>
       </c>
       <c r="S19" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362086</v>
       </c>
       <c r="T19" t="n">
-        <v>176.4448740241712</v>
+        <v>224.9602743187949</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>243.7906337570865</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>334.2184413688569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -24022,13 +24022,13 @@
         <v>125.0106036313801</v>
       </c>
       <c r="T20" t="n">
-        <v>173.5450418720561</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U20" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>279.2368581755113</v>
       </c>
       <c r="W20" t="n">
         <v>300.7255684227894</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>343.5055740765491</v>
       </c>
     </row>
     <row r="21">
@@ -24050,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>124.1930986936921</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24059,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>102.2356573827893</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>136.5101216886474</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>156.2032156881569</v>
+        <v>113.3696606775623</v>
       </c>
       <c r="T21" t="n">
         <v>196.8055600934023</v>
@@ -24107,16 +24107,16 @@
         <v>225.8865534313325</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>184.2851868548016</v>
       </c>
       <c r="W21" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>157.1672954826807</v>
       </c>
     </row>
     <row r="22">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>152.1706753591557</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24177,7 +24177,7 @@
         <v>97.36231335590594</v>
       </c>
       <c r="S22" t="n">
-        <v>211.8403234308322</v>
+        <v>163.3249231362086</v>
       </c>
       <c r="T22" t="n">
         <v>224.9602743187949</v>
@@ -24189,10 +24189,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>238.0075980419674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>210.633509649565</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24211,22 +24211,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>293.8819707039876</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>312.9009980051688</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>337.8466736746185</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>344.7157542287227</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H23" t="n">
-        <v>323.522916215912</v>
+        <v>254.4935441488191</v>
       </c>
       <c r="I23" t="n">
-        <v>150.4260830375935</v>
+        <v>89.62501212089808</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,7 +24259,7 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T23" t="n">
-        <v>216.2774064515606</v>
+        <v>147.2480343844676</v>
       </c>
       <c r="U23" t="n">
         <v>251.2210440102909</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>317.2085665889607</v>
       </c>
     </row>
     <row r="24">
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>97.50381158277443</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24299,10 +24299,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>67.48074962155451</v>
+        <v>136.5101216886474</v>
       </c>
       <c r="H24" t="n">
-        <v>35.15722640191137</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I24" t="n">
         <v>60.7029728719357</v>
@@ -24335,10 +24335,10 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S24" t="n">
-        <v>156.2032156881569</v>
+        <v>95.40214477146151</v>
       </c>
       <c r="T24" t="n">
-        <v>136.0044891767069</v>
+        <v>127.7761880263094</v>
       </c>
       <c r="U24" t="n">
         <v>225.8865534313325</v>
@@ -24420,7 +24420,7 @@
         <v>164.1592034020995</v>
       </c>
       <c r="U25" t="n">
-        <v>217.251546883745</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,7 +24429,7 @@
         <v>217.4936262694981</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>156.6802833219442</v>
       </c>
       <c r="Y25" t="n">
         <v>149.5552812850019</v>
@@ -24457,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>344.7157542287227</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H26" t="n">
         <v>323.522916215912</v>
@@ -24496,19 +24496,19 @@
         <v>173.5260039260038</v>
       </c>
       <c r="T26" t="n">
-        <v>216.2774064515606</v>
+        <v>147.2480343844676</v>
       </c>
       <c r="U26" t="n">
-        <v>182.191671943198</v>
+        <v>251.2210440102909</v>
       </c>
       <c r="V26" t="n">
-        <v>266.9511875534395</v>
+        <v>258.722886403042</v>
       </c>
       <c r="W26" t="n">
         <v>280.2115966503201</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>308.9300297617737</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>97.50381158277443</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>88.61570838830804</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24572,13 +24572,13 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S27" t="n">
-        <v>95.40214477146151</v>
+        <v>87.17384362106401</v>
       </c>
       <c r="T27" t="n">
         <v>196.8055600934023</v>
       </c>
       <c r="U27" t="n">
-        <v>156.8571813642396</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24587,10 +24587,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>136.7436131363846</v>
+        <v>144.9719142867821</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>136.6533237102115</v>
       </c>
     </row>
     <row r="28">
@@ -24645,13 +24645,13 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>76.84834158343668</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S28" t="n">
-        <v>142.8109513637393</v>
+        <v>178.6954713541692</v>
       </c>
       <c r="T28" t="n">
         <v>224.9602743187949</v>
@@ -24660,10 +24660,10 @@
         <v>217.251546883745</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>183.1082712567351</v>
       </c>
       <c r="W28" t="n">
-        <v>225.7219274198956</v>
+        <v>217.4936262694981</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.7044695963876</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>296.2435197039147</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>293.8819707039876</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>413.7451262958156</v>
       </c>
       <c r="H29" t="n">
-        <v>254.4935441488191</v>
+        <v>323.522916215912</v>
       </c>
       <c r="I29" t="n">
-        <v>89.62501212089808</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S29" t="n">
-        <v>173.5260039260038</v>
+        <v>104.4966318589109</v>
       </c>
       <c r="T29" t="n">
-        <v>147.2480343844676</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U29" t="n">
         <v>251.2210440102909</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>258.722886403042</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24761,13 +24761,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>103.6791269212228</v>
       </c>
       <c r="D30" t="n">
-        <v>78.41569349754585</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>145.2582194022391</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S30" t="n">
-        <v>87.17384362106401</v>
+        <v>95.40214477146151</v>
       </c>
       <c r="T30" t="n">
         <v>196.8055600934023</v>
@@ -24821,7 +24821,7 @@
         <v>163.7712150823324</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>182.6656110938267</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>79.58610095111945</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>84.61997710623584</v>
       </c>
       <c r="G31" t="n">
-        <v>106.491217671458</v>
+        <v>167.2922885881534</v>
       </c>
       <c r="H31" t="n">
         <v>156.0151763859972</v>
@@ -24894,19 +24894,19 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U31" t="n">
-        <v>217.251546883745</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V31" t="n">
-        <v>183.1082712567351</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>217.4936262694981</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>156.6802833219442</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>149.5552812850019</v>
       </c>
     </row>
     <row r="32">
@@ -24922,13 +24922,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>345.9077928895629</v>
+        <v>293.8819707039876</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>337.8466736746185</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>344.7157542287227</v>
@@ -24937,7 +24937,7 @@
         <v>323.522916215912</v>
       </c>
       <c r="I32" t="n">
-        <v>150.4260830375935</v>
+        <v>81.39671097050058</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S32" t="n">
         <v>173.5260039260038</v>
       </c>
       <c r="T32" t="n">
-        <v>147.2480343844676</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2210440102909</v>
+        <v>182.191671943198</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -25007,7 +25007,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>132.682351340222</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>136.5101216886474</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S33" t="n">
-        <v>156.2032156881569</v>
+        <v>87.17384362106401</v>
       </c>
       <c r="T33" t="n">
-        <v>127.7761880263094</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U33" t="n">
         <v>225.8865534313325</v>
@@ -25061,7 +25061,7 @@
         <v>182.6656110938267</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>144.9719142867821</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>119.0309092652419</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>79.58610095111945</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>77.40459057947626</v>
       </c>
       <c r="F34" t="n">
-        <v>76.39167595583834</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.2922885881534</v>
@@ -25125,16 +25125,16 @@
         <v>145.8777136505296</v>
       </c>
       <c r="S34" t="n">
-        <v>142.8109513637393</v>
+        <v>211.8403234308322</v>
       </c>
       <c r="T34" t="n">
         <v>224.9602743187949</v>
       </c>
       <c r="U34" t="n">
-        <v>217.251546883745</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V34" t="n">
-        <v>191.3365724071326</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>149.5552812850019</v>
       </c>
     </row>
     <row r="35">
@@ -25159,16 +25159,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>306.1676413260593</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>358.3606454470878</v>
       </c>
       <c r="G35" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H35" t="n">
         <v>323.522916215912</v>
@@ -25204,10 +25204,10 @@
         <v>52.02582218557539</v>
       </c>
       <c r="S35" t="n">
-        <v>125.0106036313801</v>
+        <v>173.5260039260038</v>
       </c>
       <c r="T35" t="n">
-        <v>173.5450418720561</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U35" t="n">
         <v>251.2210440102909</v>
@@ -25216,7 +25216,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>306.5086041379085</v>
       </c>
       <c r="X35" t="n">
         <v>321.2157003838454</v>
@@ -25241,13 +25241,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>114.9127158758965</v>
       </c>
       <c r="F36" t="n">
-        <v>102.3368478138794</v>
+        <v>96.55381209876023</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5101216886474</v>
+        <v>87.99472139402377</v>
       </c>
       <c r="H36" t="n">
         <v>104.1865984690043</v>
@@ -25286,16 +25286,16 @@
         <v>156.2032156881569</v>
       </c>
       <c r="T36" t="n">
-        <v>196.8055600934023</v>
+        <v>148.2901597987787</v>
       </c>
       <c r="U36" t="n">
-        <v>177.3711531367089</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V36" t="n">
-        <v>184.2851868548016</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>102.6886834434268</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.2922885881534</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>27.65621884003237</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>97.36231335590594</v>
+        <v>145.8777136505296</v>
       </c>
       <c r="S37" t="n">
         <v>163.3249231362086</v>
@@ -25368,10 +25368,10 @@
         <v>176.4448740241712</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>237.0614975843559</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>334.2184413688569</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,7 +25402,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>358.3606454470878</v>
       </c>
       <c r="G38" t="n">
         <v>365.229726001192</v>
@@ -25411,7 +25411,7 @@
         <v>323.522916215912</v>
       </c>
       <c r="I38" t="n">
-        <v>107.693718458089</v>
+        <v>150.4260830375935</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,13 +25438,13 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.510421890951747</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S38" t="n">
         <v>173.5260039260038</v>
       </c>
       <c r="T38" t="n">
-        <v>167.7620061569369</v>
+        <v>216.2774064515606</v>
       </c>
       <c r="U38" t="n">
         <v>251.2210440102909</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>343.5055740765491</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>118.0177833552437</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,13 +25481,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>102.3368478138794</v>
+        <v>96.55381209876023</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5101216886474</v>
+        <v>87.99472139402377</v>
       </c>
       <c r="H39" t="n">
-        <v>55.67119817438063</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I39" t="n">
         <v>60.7029728719357</v>
@@ -25520,7 +25520,7 @@
         <v>48.41420986353356</v>
       </c>
       <c r="S39" t="n">
-        <v>156.2032156881569</v>
+        <v>113.4708511086524</v>
       </c>
       <c r="T39" t="n">
         <v>196.8055600934023</v>
@@ -25532,10 +25532,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>157.2575849088538</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>131.3165798873137</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.2922885881534</v>
+        <v>118.7768882935297</v>
       </c>
       <c r="H40" t="n">
         <v>156.0151763859972</v>
       </c>
       <c r="I40" t="n">
-        <v>91.70657336438848</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J40" t="n">
         <v>43.96174265608267</v>
@@ -25602,22 +25602,22 @@
         <v>211.8403234308322</v>
       </c>
       <c r="T40" t="n">
-        <v>224.9602743187949</v>
+        <v>182.2279097392904</v>
       </c>
       <c r="U40" t="n">
-        <v>237.7655186562142</v>
+        <v>286.2809189508379</v>
       </c>
       <c r="V40" t="n">
-        <v>203.6222430292044</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>238.0075980419674</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>170.0692530574711</v>
       </c>
     </row>
     <row r="41">
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>334.2184413688569</v>
       </c>
       <c r="C41" t="n">
-        <v>316.7574914763839</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>339.1980054927573</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>358.3606454470878</v>
       </c>
       <c r="G41" t="n">
-        <v>365.229726001192</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H41" t="n">
         <v>323.522916215912</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.293457606070902</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S41" t="n">
         <v>173.5260039260038</v>
@@ -25690,13 +25690,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>300.7255684227894</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>337.7225383614299</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>124.1930986936921</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>109.1296801607773</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>102.3368478138794</v>
       </c>
       <c r="G42" t="n">
         <v>136.5101216886474</v>
@@ -25754,25 +25754,25 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>48.41420986353356</v>
       </c>
       <c r="S42" t="n">
         <v>156.2032156881569</v>
       </c>
       <c r="T42" t="n">
-        <v>153.9720050828077</v>
+        <v>196.8055600934023</v>
       </c>
       <c r="U42" t="n">
-        <v>177.3711531367089</v>
+        <v>225.8865534313325</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>157.2575849088538</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25788,25 +25788,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>124.5144565191233</v>
       </c>
       <c r="D43" t="n">
-        <v>100.1000727235887</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>96.9056477283076</v>
       </c>
       <c r="G43" t="n">
         <v>118.7768882935297</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4997760913736</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I43" t="n">
-        <v>91.70657336438848</v>
+        <v>134.438937943893</v>
       </c>
       <c r="J43" t="n">
         <v>43.96174265608267</v>
@@ -25845,7 +25845,7 @@
         <v>286.2809189508379</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>203.6222430292044</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>333.4149697776381</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>358.3606454470878</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>371.0127617163112</v>
+        <v>413.7451262958156</v>
       </c>
       <c r="H44" t="n">
         <v>323.522916215912</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>3.510421890951747</v>
+        <v>52.02582218557539</v>
       </c>
       <c r="S44" t="n">
-        <v>173.5260039260038</v>
+        <v>125.0106036313801</v>
       </c>
       <c r="T44" t="n">
-        <v>216.2774064515606</v>
+        <v>167.7620061569369</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2210440102909</v>
+        <v>202.7056437156673</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>326.9987360989646</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>129.8749439777212</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25961,7 +25961,7 @@
         <v>136.5101216886474</v>
       </c>
       <c r="H45" t="n">
-        <v>61.35304345840969</v>
+        <v>104.1865984690043</v>
       </c>
       <c r="I45" t="n">
         <v>60.7029728719357</v>
@@ -26006,10 +26006,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>203.179582866296</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>157.2575849088538</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131.3165798873137</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>118.7314208040042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>97.91856235194552</v>
       </c>
       <c r="F46" t="n">
         <v>96.9056477283076</v>
       </c>
       <c r="G46" t="n">
-        <v>167.2922885881534</v>
+        <v>124.5599240086489</v>
       </c>
       <c r="H46" t="n">
-        <v>113.2828118064927</v>
+        <v>156.0151763859972</v>
       </c>
       <c r="I46" t="n">
         <v>134.438937943893</v>
@@ -26079,7 +26079,7 @@
         <v>224.9602743187949</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2809189508379</v>
+        <v>237.7655186562142</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>304070.3745845545</v>
+        <v>304070.3745845543</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>320736.9387144456</v>
+        <v>320736.9387144455</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>304070.3745845542</v>
+        <v>304070.3745845544</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>304070.3745845543</v>
+        <v>304070.3745845542</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>304070.3745845543</v>
+        <v>304070.3745845545</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
         <v>573493.437101927</v>
       </c>
       <c r="D2" t="n">
-        <v>573493.437101927</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="E2" t="n">
-        <v>189831.7513713306</v>
+        <v>189831.7513713304</v>
       </c>
       <c r="F2" t="n">
         <v>189831.7513713306</v>
@@ -26426,16 +26426,16 @@
         <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>19364.81773043184</v>
+        <v>19364.81773043182</v>
       </c>
       <c r="F4" t="n">
         <v>19364.81773043184</v>
       </c>
       <c r="G4" t="n">
-        <v>19364.81773043184</v>
+        <v>19364.81773043183</v>
       </c>
       <c r="H4" t="n">
-        <v>19364.81773043184</v>
+        <v>19364.81773043183</v>
       </c>
       <c r="I4" t="n">
         <v>23844.86228237738</v>
@@ -26453,7 +26453,7 @@
         <v>19364.81773043184</v>
       </c>
       <c r="N4" t="n">
-        <v>19364.81773043183</v>
+        <v>19364.81773043184</v>
       </c>
       <c r="O4" t="n">
         <v>19364.81773043183</v>
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>11396.27257747757</v>
+        <v>11396.27257747756</v>
       </c>
       <c r="F5" t="n">
         <v>11396.27257747757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87421.7107742807</v>
+        <v>87461.4329750936</v>
       </c>
       <c r="C6" t="n">
-        <v>87421.7107742807</v>
+        <v>87461.43297509372</v>
       </c>
       <c r="D6" t="n">
-        <v>87421.7107742807</v>
+        <v>87461.4329750936</v>
       </c>
       <c r="E6" t="n">
-        <v>-180444.4536669139</v>
+        <v>-168072.7487104747</v>
       </c>
       <c r="F6" t="n">
-        <v>145324.3222229331</v>
+        <v>157696.0271793724</v>
       </c>
       <c r="G6" t="n">
-        <v>145324.322222933</v>
+        <v>157696.0271793724</v>
       </c>
       <c r="H6" t="n">
-        <v>145324.322222933</v>
+        <v>157696.0271793724</v>
       </c>
       <c r="I6" t="n">
-        <v>142568.7166016539</v>
+        <v>154678.9006659579</v>
       </c>
       <c r="J6" t="n">
-        <v>148023.8124893607</v>
+        <v>160133.9965536647</v>
       </c>
       <c r="K6" t="n">
-        <v>148023.8124893607</v>
+        <v>160133.9965536646</v>
       </c>
       <c r="L6" t="n">
-        <v>148023.8124893607</v>
+        <v>160133.9965536647</v>
       </c>
       <c r="M6" t="n">
-        <v>138346.254229498</v>
+        <v>150717.9591859373</v>
       </c>
       <c r="N6" t="n">
-        <v>145324.322222933</v>
+        <v>157696.0271793724</v>
       </c>
       <c r="O6" t="n">
-        <v>145324.3222229331</v>
+        <v>157696.0271793724</v>
       </c>
       <c r="P6" t="n">
-        <v>145324.322222933</v>
+        <v>157696.0271793724</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="F4" t="n">
         <v>48.51540029462365</v>
@@ -31773,7 +31773,7 @@
         <v>273.5029010143232</v>
       </c>
       <c r="N11" t="n">
-        <v>277.9284638912146</v>
+        <v>277.9284638912144</v>
       </c>
       <c r="O11" t="n">
         <v>262.4399673291069</v>
@@ -31849,13 +31849,13 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M12" t="n">
-        <v>190.649434216642</v>
+        <v>190.6494342166419</v>
       </c>
       <c r="N12" t="n">
-        <v>158.8462784283878</v>
+        <v>179.8571123779569</v>
       </c>
       <c r="O12" t="n">
-        <v>191.1116447390681</v>
+        <v>170.1008107894987</v>
       </c>
       <c r="P12" t="n">
         <v>159.1419832084806</v>
@@ -32086,10 +32086,10 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M15" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N15" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O15" t="n">
         <v>191.1116447390681</v>
@@ -32326,13 +32326,13 @@
         <v>190.649434216642</v>
       </c>
       <c r="N18" t="n">
-        <v>158.8462784283878</v>
+        <v>179.857112377957</v>
       </c>
       <c r="O18" t="n">
         <v>191.1116447390681</v>
       </c>
       <c r="P18" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q18" t="n">
         <v>106.3822012793335</v>
@@ -32563,10 +32563,10 @@
         <v>190.649434216642</v>
       </c>
       <c r="N21" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O21" t="n">
-        <v>170.1008107894989</v>
+        <v>191.1116447390681</v>
       </c>
       <c r="P21" t="n">
         <v>159.1419832084806</v>
@@ -34216,7 +34216,7 @@
         <v>134.575092925413</v>
       </c>
       <c r="L42" t="n">
-        <v>159.9419860866253</v>
+        <v>180.9528200361945</v>
       </c>
       <c r="M42" t="n">
         <v>190.649434216642</v>
@@ -34228,7 +34228,7 @@
         <v>191.1116447390681</v>
       </c>
       <c r="P42" t="n">
-        <v>159.1419832084806</v>
+        <v>138.1311492589115</v>
       </c>
       <c r="Q42" t="n">
         <v>106.3822012793335</v>
@@ -34456,10 +34456,10 @@
         <v>180.9528200361945</v>
       </c>
       <c r="M45" t="n">
-        <v>169.6386002670728</v>
+        <v>190.649434216642</v>
       </c>
       <c r="N45" t="n">
-        <v>179.857112377957</v>
+        <v>158.8462784283878</v>
       </c>
       <c r="O45" t="n">
         <v>191.1116447390681</v>
@@ -35415,16 +35415,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="M11" t="n">
-        <v>46.5551821009015</v>
+        <v>46.55518210090138</v>
       </c>
       <c r="N11" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="O11" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M12" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="N12" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="O12" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505428</v>
       </c>
       <c r="P12" t="n">
         <v>25.16757579415039</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="M13" t="n">
-        <v>48.51540029462365</v>
+        <v>48.51540029462355</v>
       </c>
       <c r="N13" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090138</v>
       </c>
       <c r="O13" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10.03631752276405</v>
-      </c>
       <c r="M14" t="n">
-        <v>43.15666778705045</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N14" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O14" t="n">
-        <v>41.87759708571063</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M15" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N15" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="O15" t="n">
         <v>48.51540029462365</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>46.5551821009015</v>
+      </c>
+      <c r="L16" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="L16" t="n">
-        <v>46.5551821009015</v>
-      </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O16" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="P16" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L17" t="n">
-        <v>10.03631752276405</v>
+        <v>14.2134261934813</v>
       </c>
       <c r="M17" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N17" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O17" t="n">
-        <v>41.87759708571063</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P17" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N18" t="n">
-        <v>27.50456634505447</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="O18" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="P18" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36047,16 +36047,16 @@
         <v>48.51540029462365</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
         <v>48.51540029462365</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>46.55518210090149</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>48.51540029462365</v>
@@ -36135,13 +36135,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="O20" t="n">
-        <v>41.87759708571063</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P20" t="n">
+        <v>9.535841178290433</v>
+      </c>
+      <c r="Q20" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36211,10 +36211,10 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N21" t="n">
+        <v>27.50456634505447</v>
+      </c>
+      <c r="O21" t="n">
         <v>48.51540029462365</v>
-      </c>
-      <c r="O21" t="n">
-        <v>27.50456634505447</v>
       </c>
       <c r="P21" t="n">
         <v>25.16757579415039</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L22" t="n">
         <v>48.51540029462365</v>
@@ -36290,13 +36290,13 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>46.5551821009015</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="P22" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36363,10 +36363,10 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
+        <v>10.03631752276405</v>
+      </c>
+      <c r="M23" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="M23" t="n">
-        <v>66.2403065290286</v>
       </c>
       <c r="N23" t="n">
         <v>69.02937206709291</v>
@@ -36375,7 +36375,7 @@
         <v>69.02937206709291</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>56.20398900626453</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>58.90567221505084</v>
       </c>
       <c r="L25" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>69.02937206709291</v>
+        <v>7.334634313977761</v>
       </c>
       <c r="N25" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="O25" t="n">
-        <v>7.334634313977776</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36597,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>13.0473212192141</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>10.03631752276405</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M26" t="n">
-        <v>43.15666778705045</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="N26" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="O26" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902856</v>
       </c>
       <c r="P26" t="n">
-        <v>69.02937206709291</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>42.39844025632027</v>
+        <v>54.41236343662987</v>
       </c>
       <c r="M27" t="n">
         <v>69.02937206709291</v>
@@ -36755,16 +36755,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>7.334634313977761</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="M28" t="n">
         <v>69.02937206709291</v>
       </c>
       <c r="N28" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902859</v>
       </c>
       <c r="O28" t="n">
         <v>69.02937206709291</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>10.03631752276405</v>
+        <v>43.5976105144474</v>
       </c>
       <c r="M29" t="n">
+        <v>43.15666778705045</v>
+      </c>
+      <c r="N29" t="n">
+        <v>48.51540029462365</v>
+      </c>
+      <c r="O29" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="N29" t="n">
-        <v>69.02937206709291</v>
-      </c>
-      <c r="O29" t="n">
-        <v>56.20398900626453</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>12.01392318030959</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>42.39844025632027</v>
+        <v>54.41236343662987</v>
       </c>
       <c r="M30" t="n">
         <v>69.02937206709291</v>
@@ -36992,19 +36992,19 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
       <c r="N31" t="n">
-        <v>7.334634313977776</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O31" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902859</v>
       </c>
       <c r="P31" t="n">
         <v>69.02937206709291</v>
@@ -37071,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>44.37620487131361</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>10.03631752276405</v>
       </c>
       <c r="M32" t="n">
+        <v>56.20398900626454</v>
+      </c>
+      <c r="N32" t="n">
         <v>69.02937206709291</v>
       </c>
-      <c r="N32" t="n">
-        <v>48.51540029462365</v>
-      </c>
       <c r="O32" t="n">
-        <v>32.34175590742021</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
         <v>69.02937206709291</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>12.01392318030959</v>
       </c>
       <c r="L33" t="n">
         <v>42.39844025632027</v>
@@ -37165,7 +37165,7 @@
         <v>55.68973936534124</v>
       </c>
       <c r="P33" t="n">
-        <v>37.18149897445998</v>
+        <v>25.16757579415039</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>58.90567221505084</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37238,10 +37238,10 @@
         <v>69.02937206709291</v>
       </c>
       <c r="N34" t="n">
-        <v>7.334634313977776</v>
+        <v>69.02937206709291</v>
       </c>
       <c r="O34" t="n">
-        <v>69.02937206709291</v>
+        <v>66.24030652902859</v>
       </c>
       <c r="P34" t="n">
         <v>69.02937206709291</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>19.57215870105449</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -37314,13 +37314,13 @@
         <v>48.51540029462365</v>
       </c>
       <c r="M35" t="n">
-        <v>46.5551821009015</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N35" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O35" t="n">
-        <v>48.51540029462365</v>
+        <v>32.34175590742021</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
         <v>46.5551821009015</v>
-      </c>
-      <c r="M37" t="n">
-        <v>48.51540029462365</v>
       </c>
       <c r="N37" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>9.535841178290418</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>10.03631752276405</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M38" t="n">
-        <v>43.15666778705045</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="N38" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O38" t="n">
-        <v>32.34175590742021</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L40" t="n">
         <v>48.51540029462365</v>
@@ -37712,10 +37712,10 @@
         <v>48.51540029462365</v>
       </c>
       <c r="N40" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="O40" t="n">
-        <v>46.55518210090149</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>48.51540029462365</v>
+        <v>10.03631752276405</v>
       </c>
       <c r="M41" t="n">
-        <v>48.51540029462365</v>
+        <v>43.15666778705045</v>
       </c>
       <c r="N41" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O41" t="n">
-        <v>46.55518210090149</v>
+        <v>41.87759708571063</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37864,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>21.38760630675111</v>
+        <v>42.39844025632027</v>
       </c>
       <c r="M42" t="n">
         <v>48.51540029462365</v>
@@ -37876,7 +37876,7 @@
         <v>48.51540029462365</v>
       </c>
       <c r="P42" t="n">
-        <v>25.16757579415039</v>
+        <v>4.156741844581223</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37940,19 +37940,19 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M43" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="N43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>46.55518210090149</v>
@@ -38022,19 +38022,19 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>10.03631752276405</v>
+        <v>46.5551821009015</v>
       </c>
       <c r="M44" t="n">
-        <v>43.15666778705045</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N44" t="n">
         <v>48.51540029462365</v>
       </c>
       <c r="O44" t="n">
-        <v>41.87759708571063</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="P44" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38104,10 +38104,10 @@
         <v>42.39844025632027</v>
       </c>
       <c r="M45" t="n">
-        <v>27.50456634505448</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N45" t="n">
-        <v>48.51540029462365</v>
+        <v>27.50456634505447</v>
       </c>
       <c r="O45" t="n">
         <v>48.51540029462365</v>
@@ -38180,19 +38180,19 @@
         <v>48.51540029462365</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>48.51540029462365</v>
       </c>
       <c r="N46" t="n">
-        <v>46.5551821009015</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>48.51540029462365</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>48.51540029462365</v>
+        <v>46.55518210090149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
